--- a/public/download/sample.xlsx
+++ b/public/download/sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prajwal.pawar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prajwal.pawar\Desktop\Suppression\Suppression-mvc-app\public\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8198C1E6-4E21-46BC-B095-AF70017C75A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CD0C6D-A6B4-4B7F-8DEA-0EDAB42349C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A84A48E1-8D90-486C-ABBD-401C5E95DB2D}"/>
   </bookViews>
@@ -36,38 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>Sr No.</t>
-  </si>
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>Agent Name</t>
-  </si>
-  <si>
-    <t>Team Lead Name</t>
-  </si>
-  <si>
-    <t>Campaign ID</t>
-  </si>
-  <si>
-    <t>Call Date</t>
-  </si>
-  <si>
-    <t>Audit Date</t>
-  </si>
-  <si>
-    <t>Call Disposition</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="358">
   <si>
     <t>Company Name</t>
   </si>
   <si>
-    <t>Salutation</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -77,121 +50,1066 @@
     <t>Email ID</t>
   </si>
   <si>
-    <t>Email Status</t>
-  </si>
-  <si>
-    <t>Job Title</t>
-  </si>
-  <si>
-    <t>Job Level</t>
-  </si>
-  <si>
-    <t>Job Function</t>
-  </si>
-  <si>
-    <t>Job Function 1</t>
-  </si>
-  <si>
     <t>Phone Number</t>
   </si>
   <si>
-    <t>Direct Number</t>
-  </si>
-  <si>
-    <t>Address 1</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Zip Code</t>
-  </si>
-  <si>
-    <t>Industry Type</t>
-  </si>
-  <si>
-    <t>Sub-Industry</t>
-  </si>
-  <si>
-    <t>Employee Size</t>
-  </si>
-  <si>
-    <t>SIC Code</t>
-  </si>
-  <si>
-    <t>NAICS Code</t>
-  </si>
-  <si>
-    <t>Revenue Size</t>
-  </si>
-  <si>
-    <t>Revenue Size URL</t>
-  </si>
-  <si>
-    <t>Employee Size URL</t>
-  </si>
-  <si>
-    <t>Industry Type URL</t>
-  </si>
-  <si>
     <t>linkedinLink</t>
   </si>
   <si>
-    <t>Contact URL (Non-LI)</t>
-  </si>
-  <si>
-    <t>QA Status</t>
-  </si>
-  <si>
-    <t>Primary Reason</t>
-  </si>
-  <si>
-    <t>QA Comments</t>
-  </si>
-  <si>
-    <t>Time-Stamp</t>
-  </si>
-  <si>
-    <t>QA Name</t>
-  </si>
-  <si>
-    <t>Rectification Date</t>
-  </si>
-  <si>
-    <t>Rectified by</t>
-  </si>
-  <si>
-    <t>Call Recording URL</t>
-  </si>
-  <si>
-    <t>WP/Asset Name</t>
-  </si>
-  <si>
-    <t>CQ 1</t>
-  </si>
-  <si>
-    <t>CQ2</t>
-  </si>
-  <si>
-    <t>CQ3</t>
-  </si>
-  <si>
-    <t>CQ4</t>
-  </si>
-  <si>
-    <t>RA comments</t>
-  </si>
-  <si>
     <t>Domain</t>
+  </si>
+  <si>
+    <t>Brambles</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>gabriel.garcia@brambles.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/gabrielgarcia74/</t>
+  </si>
+  <si>
+    <t>Evident Scientific</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Shaker</t>
+  </si>
+  <si>
+    <t>steven.shaker@evident.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/stevenshaker/</t>
+  </si>
+  <si>
+    <t>CareCentrix</t>
+  </si>
+  <si>
+    <t>Fran</t>
+  </si>
+  <si>
+    <t>Seales</t>
+  </si>
+  <si>
+    <t>fran.seales@carecentrix.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/fran-lanham-seales-b7543223/</t>
+  </si>
+  <si>
+    <t>Augusta Health</t>
+  </si>
+  <si>
+    <t>Leigh</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>lthomas@augustamed.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/leighwilliams/</t>
+  </si>
+  <si>
+    <t>Massachusetts Trial Court</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Gerrity</t>
+  </si>
+  <si>
+    <t>mgerrity@mass.gov</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mark-gerrity-8a5a711a/</t>
+  </si>
+  <si>
+    <t>University Hospitals</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Klisovic</t>
+  </si>
+  <si>
+    <t>rebecca.klisovic@uhhospitals.org</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rebecca-klisovic-8839b5aa/</t>
+  </si>
+  <si>
+    <t>Ochsner Health</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Coffin</t>
+  </si>
+  <si>
+    <t>dcoffin@ochsner.org</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/david-coffin-77109749/</t>
+  </si>
+  <si>
+    <t>BART</t>
+  </si>
+  <si>
+    <t>Ravindra</t>
+  </si>
+  <si>
+    <t>Misra</t>
+  </si>
+  <si>
+    <t>rmisra@bart.gov</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ravindra-misra-526393a/</t>
+  </si>
+  <si>
+    <t>Catawba Valley Health System</t>
+  </si>
+  <si>
+    <t>Nadin</t>
+  </si>
+  <si>
+    <t>Knippschild</t>
+  </si>
+  <si>
+    <t>nknippschild@catawbavalleymc.org</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nadin-knippschild-69990944/</t>
+  </si>
+  <si>
+    <t>The TJX Companies, Inc.</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Frost</t>
+  </si>
+  <si>
+    <t>duncan_frost@tjx.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/duncan-frost-9464264/</t>
+  </si>
+  <si>
+    <t>union pacific</t>
+  </si>
+  <si>
+    <t>Ashok</t>
+  </si>
+  <si>
+    <t>Fichadia</t>
+  </si>
+  <si>
+    <t>ashok.fichadia@up.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashokfichadia/</t>
+  </si>
+  <si>
+    <t>Pep Boys</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Ofalt</t>
+  </si>
+  <si>
+    <t>jim_ofalt@pepboy.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jim-ofalt-4593359/</t>
+  </si>
+  <si>
+    <t>MetLife</t>
+  </si>
+  <si>
+    <t>Gregg</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>gcole1@metlife.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/gregg-cole-5b288a10</t>
+  </si>
+  <si>
+    <t>HCA</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Pelfrey</t>
+  </si>
+  <si>
+    <t>travis.pelfrey@hcahealthcare.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/travis-pelfrey-7a120034/</t>
+  </si>
+  <si>
+    <t>Self Regional Healthcare</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Hartung</t>
+  </si>
+  <si>
+    <t>ahartung@selfregional.org</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/andy-hartung-09684321/</t>
+  </si>
+  <si>
+    <t>Union Pacific Railroad</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Holmes</t>
+  </si>
+  <si>
+    <t>rholmes@up.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/richard-holmes-835ba9126</t>
+  </si>
+  <si>
+    <t>Virtua Health</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Foschi</t>
+  </si>
+  <si>
+    <t>mfoschi@virtua.org</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/maria-foschi-82303611/</t>
+  </si>
+  <si>
+    <t>Dairy Farmers of America</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>pallen@dfamilk.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/patrick-allen-3b140423/</t>
+  </si>
+  <si>
+    <t>CONNECTURE</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Mieure</t>
+  </si>
+  <si>
+    <t>mmieure@connecture.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mikemieure/</t>
+  </si>
+  <si>
+    <t>MSC Mediterranean Shipping Company</t>
+  </si>
+  <si>
+    <t>Jacek</t>
+  </si>
+  <si>
+    <t>Lawniczak</t>
+  </si>
+  <si>
+    <t>jlawniczak@msc.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jaceklawniczak7/</t>
+  </si>
+  <si>
+    <t>RWJBarnabas Health</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Sebelle</t>
+  </si>
+  <si>
+    <t>ksebelle@rwjbh.org</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kevin-sebelle-31349730/</t>
+  </si>
+  <si>
+    <t>Vibra Healthcare</t>
+  </si>
+  <si>
+    <t>Visai</t>
+  </si>
+  <si>
+    <t>Lor</t>
+  </si>
+  <si>
+    <t>vlor@vibrahealthcare.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/visai-lor/</t>
+  </si>
+  <si>
+    <t>Greater Bank</t>
+  </si>
+  <si>
+    <t>Alim</t>
+  </si>
+  <si>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t>alim@northwell.edu</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/alimabdul/</t>
+  </si>
+  <si>
+    <t>Sheetz</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Mcelheny</t>
+  </si>
+  <si>
+    <t>tim.mcelheny@sheetz.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/timothy-mcelheny/</t>
+  </si>
+  <si>
+    <t>Riverside Community Care</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Beckman</t>
+  </si>
+  <si>
+    <t>abeckman@riversidecc.org</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/1andrewbeckman</t>
+  </si>
+  <si>
+    <t>CSI Leasing, Inc.</t>
+  </si>
+  <si>
+    <t>Zulay</t>
+  </si>
+  <si>
+    <t>Calero</t>
+  </si>
+  <si>
+    <t>zulay.calero@csileasing.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/zulay-calero-67a8a9a/</t>
+  </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
+    <t>Dignam</t>
+  </si>
+  <si>
+    <t>ldignam@virtua.org</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lou-dignam-96701a16a/</t>
+  </si>
+  <si>
+    <t>American Municipal Power</t>
+  </si>
+  <si>
+    <t>Caleb</t>
+  </si>
+  <si>
+    <t>Byrley</t>
+  </si>
+  <si>
+    <t>cbyrley@amppartners.org</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/caleb-byrley-82000796/</t>
+  </si>
+  <si>
+    <t>Discount Tire</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>john.nicholas@discounttire.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/johnnicholastx/</t>
+  </si>
+  <si>
+    <t>Cartier</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Sova-Worme</t>
+  </si>
+  <si>
+    <t>jennifer.sova-worme@cartier.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jennifer-s-8535705/</t>
+  </si>
+  <si>
+    <t>National HealthCare Corporation (NHC)</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Hicks</t>
+  </si>
+  <si>
+    <t>bhicks@nhccare.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/benjaminlhicks/</t>
+  </si>
+  <si>
+    <t>Cook Childrens Health Care System</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Crowe</t>
+  </si>
+  <si>
+    <t>susan.crowe@cookchildrens.org</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/susan-crowe/</t>
+  </si>
+  <si>
+    <t>Szczepanski</t>
+  </si>
+  <si>
+    <t>john_szczepanski@tjx.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/john-szczepanski-06185824/</t>
+  </si>
+  <si>
+    <t>WVU Medicine</t>
+  </si>
+  <si>
+    <t>Jhoni</t>
+  </si>
+  <si>
+    <t>Stephens</t>
+  </si>
+  <si>
+    <t>jhoni.stephens@wvumedicine.org</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jhonismithstephens/</t>
+  </si>
+  <si>
+    <t>Sothebys</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Henning</t>
+  </si>
+  <si>
+    <t>josh.henning@sothebys.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/joshhenning/</t>
+  </si>
+  <si>
+    <t>Valley Health System</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Valtos</t>
+  </si>
+  <si>
+    <t>avaltos@valleyhealth.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/andrea-valtos-23480524/</t>
+  </si>
+  <si>
+    <t>Catholic Health</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Tagliarino</t>
+  </si>
+  <si>
+    <t>jason.tagliarino@chsli.org</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jason-tagliarino-42909625/</t>
+  </si>
+  <si>
+    <t>The Tjx Companies, Inc.</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Romiti</t>
+  </si>
+  <si>
+    <t>jonathan_romiti@tjx.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jonathan-romiti-b60a5592/</t>
+  </si>
+  <si>
+    <t>Goshen General Hospital</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Parsons</t>
+  </si>
+  <si>
+    <t>rparsons@goshenhealth.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/robnparsons/</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>Cippel</t>
+  </si>
+  <si>
+    <t>mark.cippel@pnc.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mark-cippel-a2579b162/</t>
+  </si>
+  <si>
+    <t>UHS</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Kahler</t>
+  </si>
+  <si>
+    <t>michael.kahler@uhsinc.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/michael-kahler-5137973/</t>
+  </si>
+  <si>
+    <t>Del Sol</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>jeff.smith@delsol.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jeffrey-smith-aaa2281/</t>
+  </si>
+  <si>
+    <t>Baptist Health</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>songk@baptisthealth.net</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/song-kim-21570/</t>
+  </si>
+  <si>
+    <t>Jessie</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>jessie.frank@ochsner.org</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jessie-frank-5a596526/</t>
+  </si>
+  <si>
+    <t>Watco Companies Llc</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>tom_hunter@watcocompanies.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/tom-hunter-a49a19b</t>
+  </si>
+  <si>
+    <t>University of Miami</t>
+  </si>
+  <si>
+    <t>Cory</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>cory.hall@miami.edu</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/corylhall</t>
+  </si>
+  <si>
+    <t>UT SOUTHWESTERN MEDICAL CENTER</t>
+  </si>
+  <si>
+    <t>Kathryn</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>kathryn.flores@utsouthwestern.edu</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kathryn-flores-a838955/</t>
+  </si>
+  <si>
+    <t>UofL Health</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Kaelin</t>
+  </si>
+  <si>
+    <t>martin.kaelin@uoflhealth.org</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/martin-kaelin-8445876/</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>Soni</t>
+  </si>
+  <si>
+    <t>vivek_soni@tjx.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vivek-soni-29b0a715/</t>
+  </si>
+  <si>
+    <t>NorthShore University HealthSystem</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>scollins@northshore.org</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/spencer-collins-1871551/</t>
+  </si>
+  <si>
+    <t>Molina Healthcare</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Ehrlich</t>
+  </si>
+  <si>
+    <t>karen.ehrlich@molinahealthcare.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/karenehrlich/</t>
+  </si>
+  <si>
+    <t>Albany Medical Center</t>
+  </si>
+  <si>
+    <t>Rougas</t>
+  </si>
+  <si>
+    <t>rougasj@amc.edu</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/john-rougas-44a37853/</t>
+  </si>
+  <si>
+    <t>Hub Group</t>
+  </si>
+  <si>
+    <t>Derek</t>
+  </si>
+  <si>
+    <t>Haacker</t>
+  </si>
+  <si>
+    <t>dhaacker@hubgroup.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/derek-haacker-b916072a/</t>
+  </si>
+  <si>
+    <t>Geisinger</t>
+  </si>
+  <si>
+    <t>Camille</t>
+  </si>
+  <si>
+    <t>Rivera-Fuentes</t>
+  </si>
+  <si>
+    <t>camiller@geisinger.org</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/camille-rivera-fuentes-pmp-4380696/</t>
+  </si>
+  <si>
+    <t>Havertys Furniture</t>
+  </si>
+  <si>
+    <t>Wally</t>
+  </si>
+  <si>
+    <t>Rasmussen</t>
+  </si>
+  <si>
+    <t>wrasmussen@havertys.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/wally-rasmussen-3607563a/</t>
+  </si>
+  <si>
+    <t>CarMax</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Hendry</t>
+  </si>
+  <si>
+    <t>paul_hendry@carmax.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/paul-hendry-812a1313/</t>
+  </si>
+  <si>
+    <t>Optum</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>jon.head@optum.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jon-head-05b258a/</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Rhinehart</t>
+  </si>
+  <si>
+    <t>chris.rhinehart@hcahealthcare.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/chris-rhinehart-55186a1/</t>
+  </si>
+  <si>
+    <t>The TJX Companies</t>
+  </si>
+  <si>
+    <t>Erica</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
+    <t>erica.rodney@tjx.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/erica-rodney-37929b7</t>
+  </si>
+  <si>
+    <t>Norfolk Southern</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>chris.hudson@nscorp.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/chris-hudson-9388812b</t>
+  </si>
+  <si>
+    <t>Radiology Partners</t>
+  </si>
+  <si>
+    <t>Sells</t>
+  </si>
+  <si>
+    <t>derek.sells@radpartners.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dereksells/</t>
+  </si>
+  <si>
+    <t>zobristinc.com</t>
+  </si>
+  <si>
+    <t>zdperformancemarketing.com</t>
+  </si>
+  <si>
+    <t>yourdataplatform.com</t>
+  </si>
+  <si>
+    <t>ymail.com</t>
+  </si>
+  <si>
+    <t>yellowbrick.com</t>
+  </si>
+  <si>
+    <t>yahoo.com</t>
+  </si>
+  <si>
+    <t>xmatters.com</t>
+  </si>
+  <si>
+    <t>xaapbuildings.com</t>
+  </si>
+  <si>
+    <t>workday.com</t>
+  </si>
+  <si>
+    <t>wistia.com</t>
+  </si>
+  <si>
+    <t>webmail.com</t>
+  </si>
+  <si>
+    <t>vmware.com</t>
+  </si>
+  <si>
+    <t>vizientinc.com</t>
+  </si>
+  <si>
+    <t>vitalyst.com</t>
+  </si>
+  <si>
+    <t>virtusa.com</t>
+  </si>
+  <si>
+    <t>vertexinc.com</t>
+  </si>
+  <si>
+    <t>vertexcs.com</t>
+  </si>
+  <si>
+    <t>veracode.com</t>
+  </si>
+  <si>
+    <t>vastdata.com</t>
+  </si>
+  <si>
+    <t>uplandsoftware.com</t>
+  </si>
+  <si>
+    <t>unsupervised.com</t>
+  </si>
+  <si>
+    <t>unitymedia.de</t>
+  </si>
+  <si>
+    <t>unity.com</t>
+  </si>
+  <si>
+    <t>unitrends.com</t>
+  </si>
+  <si>
+    <t>unbabel.com</t>
+  </si>
+  <si>
+    <t>ukg.com</t>
+  </si>
+  <si>
+    <t>twilio.com</t>
+  </si>
+  <si>
+    <t>tungsram.com</t>
+  </si>
+  <si>
+    <t>trustack.co.uk</t>
+  </si>
+  <si>
+    <t>tripactions.com</t>
+  </si>
+  <si>
+    <t>trb365.com</t>
+  </si>
+  <si>
+    <t>thousandeyes.com</t>
+  </si>
+  <si>
+    <t>thechannelco.com</t>
+  </si>
+  <si>
+    <t>techtarget.com</t>
+  </si>
+  <si>
+    <t>tcenergy.com</t>
+  </si>
+  <si>
+    <t>tangoe.com</t>
+  </si>
+  <si>
+    <t>tamr.com</t>
+  </si>
+  <si>
+    <t>talkdesk.com</t>
+  </si>
+  <si>
+    <t>tableau.com</t>
+  </si>
+  <si>
+    <t>sysdig.com</t>
+  </si>
+  <si>
+    <t>stradigi.ai</t>
+  </si>
+  <si>
+    <t>splunk.com</t>
+  </si>
+  <si>
+    <t>splashtop.com</t>
+  </si>
+  <si>
+    <t>sovos.com</t>
+  </si>
+  <si>
+    <t>sourceinterlink.com</t>
+  </si>
+  <si>
+    <t>solarwinds.com</t>
+  </si>
+  <si>
+    <t>softwareone.com</t>
+  </si>
+  <si>
+    <t>simulmedia.com</t>
+  </si>
+  <si>
+    <t>servicenow.com</t>
+  </si>
+  <si>
+    <t>sartorius.com</t>
+  </si>
+  <si>
+    <t>sambanova.ai</t>
+  </si>
+  <si>
+    <t>salesforce.com</t>
+  </si>
+  <si>
+    <t>rubrik.com</t>
+  </si>
+  <si>
+    <t>rockwellautomation.com</t>
+  </si>
+  <si>
+    <t>ringcentralhome.com</t>
+  </si>
+  <si>
+    <t>ringcentral.com</t>
   </si>
 </sst>
 </file>
@@ -207,18 +1125,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,9 +1145,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,13 +1481,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD9D530-D8D0-46A9-9650-79364772D9C3}">
-  <dimension ref="A1:AZ1"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,140 +1511,1408 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="E2">
+        <v>442073795151</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="G2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E3">
+        <v>447885415586</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="G3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E4">
+        <v>447912883887</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="E5">
+        <v>447813805719</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="G5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="E6">
+        <v>441437764551</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="G6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="E7">
+        <v>447961176813</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="G7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="E8">
+        <v>441382307301</v>
+      </c>
+      <c r="F8" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="G8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="E9">
+        <v>447967397161</v>
+      </c>
+      <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="G9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="C10" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="E10">
+        <v>447834541804</v>
+      </c>
+      <c r="F10" t="s">
         <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>447790788004</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>447753250932</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>442076014444</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>39192193</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>49892340</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>49893780</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17">
+        <v>49617166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18">
+        <v>442074084442</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19">
+        <v>441576202636</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>447748788999</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21">
+        <v>447949655654</v>
+      </c>
+      <c r="F21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22">
+        <v>31140172</v>
+      </c>
+      <c r="F22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23">
+        <v>447769686267</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24">
+        <v>441313331056</v>
+      </c>
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25">
+        <v>442072674366</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26">
+        <v>447967698266</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27">
+        <v>447827966610</v>
+      </c>
+      <c r="F27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28">
+        <v>447951015116</v>
+      </c>
+      <c r="F28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29">
+        <v>441322862601</v>
+      </c>
+      <c r="F29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30">
+        <v>442476438400</v>
+      </c>
+      <c r="F30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31">
+        <v>442075393840</v>
+      </c>
+      <c r="F31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32">
+        <v>441844212305</v>
+      </c>
+      <c r="F32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33">
+        <v>441869321321</v>
+      </c>
+      <c r="F33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34">
+        <v>442082070602</v>
+      </c>
+      <c r="F34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35">
+        <v>442074930100</v>
+      </c>
+      <c r="F35" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36">
+        <v>447590292402</v>
+      </c>
+      <c r="F36" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37">
+        <v>442085456100</v>
+      </c>
+      <c r="F37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38">
+        <v>441213861722</v>
+      </c>
+      <c r="F38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39">
+        <v>441912657277</v>
+      </c>
+      <c r="F39" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40">
+        <v>441412218012</v>
+      </c>
+      <c r="F40" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41">
+        <v>442035401600</v>
+      </c>
+      <c r="F41" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42">
+        <v>441234844100</v>
+      </c>
+      <c r="F42" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43">
+        <v>447983470651</v>
+      </c>
+      <c r="F43" t="s">
+        <v>212</v>
+      </c>
+      <c r="G43" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44">
+        <v>441206363200</v>
+      </c>
+      <c r="F44" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45">
+        <v>441908410026</v>
+      </c>
+      <c r="F45" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" t="s">
+        <v>223</v>
+      </c>
+      <c r="C46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46">
+        <v>442076301166</v>
+      </c>
+      <c r="F46" t="s">
+        <v>226</v>
+      </c>
+      <c r="G46" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47">
+        <v>441234363119</v>
+      </c>
+      <c r="F47" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" t="s">
+        <v>235</v>
+      </c>
+      <c r="E48">
+        <v>441332824297</v>
+      </c>
+      <c r="F48" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49">
+        <v>448445763737</v>
+      </c>
+      <c r="F49" t="s">
+        <v>241</v>
+      </c>
+      <c r="G49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" t="s">
+        <v>244</v>
+      </c>
+      <c r="E50">
+        <v>442076282000</v>
+      </c>
+      <c r="F50" t="s">
+        <v>245</v>
+      </c>
+      <c r="G50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51">
+        <v>441142765411</v>
+      </c>
+      <c r="F51" t="s">
+        <v>250</v>
+      </c>
+      <c r="G51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" t="s">
+        <v>253</v>
+      </c>
+      <c r="D52" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52">
+        <v>441652650484</v>
+      </c>
+      <c r="F52" t="s">
+        <v>255</v>
+      </c>
+      <c r="G52" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>257</v>
+      </c>
+      <c r="D53" t="s">
+        <v>258</v>
+      </c>
+      <c r="E53">
+        <v>442077032324</v>
+      </c>
+      <c r="F53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>260</v>
+      </c>
+      <c r="B54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" t="s">
+        <v>262</v>
+      </c>
+      <c r="D54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54">
+        <v>442079084600</v>
+      </c>
+      <c r="F54" t="s">
+        <v>264</v>
+      </c>
+      <c r="G54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" t="s">
+        <v>266</v>
+      </c>
+      <c r="C55" t="s">
+        <v>267</v>
+      </c>
+      <c r="D55" t="s">
+        <v>268</v>
+      </c>
+      <c r="E55">
+        <v>441323730201</v>
+      </c>
+      <c r="F55" t="s">
+        <v>269</v>
+      </c>
+      <c r="G55" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>270</v>
+      </c>
+      <c r="B56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C56" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56" t="s">
+        <v>273</v>
+      </c>
+      <c r="E56">
+        <v>441142444221</v>
+      </c>
+      <c r="F56" t="s">
+        <v>274</v>
+      </c>
+      <c r="G56" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" t="s">
+        <v>278</v>
+      </c>
+      <c r="E57">
+        <v>442072451122</v>
+      </c>
+      <c r="F57" t="s">
+        <v>279</v>
+      </c>
+      <c r="G57" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D58" t="s">
+        <v>283</v>
+      </c>
+      <c r="E58">
+        <v>442072901950</v>
+      </c>
+      <c r="F58" t="s">
+        <v>284</v>
+      </c>
+      <c r="G58" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" t="s">
+        <v>286</v>
+      </c>
+      <c r="D59" t="s">
+        <v>287</v>
+      </c>
+      <c r="E59">
+        <v>441582967777</v>
+      </c>
+      <c r="F59" t="s">
+        <v>288</v>
+      </c>
+      <c r="G59" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>289</v>
+      </c>
+      <c r="B60" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" t="s">
+        <v>291</v>
+      </c>
+      <c r="D60" t="s">
+        <v>292</v>
+      </c>
+      <c r="E60">
+        <v>441105966</v>
+      </c>
+      <c r="F60" t="s">
+        <v>293</v>
+      </c>
+      <c r="G60" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" t="s">
+        <v>295</v>
+      </c>
+      <c r="D61" t="s">
+        <v>296</v>
+      </c>
+      <c r="E61">
+        <v>447543830479</v>
+      </c>
+      <c r="F61" t="s">
+        <v>297</v>
+      </c>
+      <c r="G61" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B62" t="s">
+        <v>261</v>
+      </c>
+      <c r="C62" t="s">
+        <v>299</v>
+      </c>
+      <c r="D62" t="s">
+        <v>300</v>
+      </c>
+      <c r="E62">
+        <v>441546605522</v>
+      </c>
+      <c r="F62" t="s">
+        <v>301</v>
+      </c>
+      <c r="G62" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
